--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>名称</t>
   </si>
@@ -22,103 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
     <t>诺德</t>
   </si>
   <si>
-    <t>兴全</t>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>东方公司</t>
   </si>
   <si>
     <t>汇添富</t>
   </si>
   <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>易方达</t>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
   </si>
   <si>
     <t>上投摩根</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>招商</t>
   </si>
 </sst>
 </file>
@@ -476,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04289048188933475</v>
+        <v>0.0006273639975766798</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -509,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.03750936335346422</v>
+        <v>-0.001847905396606064</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -520,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.03645303576300041</v>
+        <v>-0.003377900668414036</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -531,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.03408114413243579</v>
+        <v>-0.0036200055648693</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -542,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03022821077203197</v>
+        <v>-0.004620936567128142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -553,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.02838898858859751</v>
+        <v>-0.00769439015170581</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -564,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02646868581603234</v>
+        <v>-0.008878551977002047</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -575,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02620097843358593</v>
+        <v>-0.01005093680364932</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -586,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02529236586391059</v>
+        <v>-0.01293937852646621</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -597,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02466252762329213</v>
+        <v>-0.01347157403515786</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -608,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.02365626919282371</v>
+        <v>-0.01350945925560554</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -619,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02106307600299417</v>
+        <v>-0.01351474428540644</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -630,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02088084711844918</v>
+        <v>-0.01693537265183764</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -641,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02045933048578341</v>
+        <v>-0.01739933581917052</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -652,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01996621524421349</v>
+        <v>-0.01816415375616665</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -663,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01926517922752602</v>
+        <v>-0.0183812043200493</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -674,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01763534723054239</v>
+        <v>-0.01840102751956585</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -685,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01755508722211063</v>
+        <v>-0.01854417344420967</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -696,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01669323451215998</v>
+        <v>-0.01976099754069083</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -707,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01411750178226989</v>
+        <v>-0.0198214325609869</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -718,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01387981369131674</v>
+        <v>-0.02008257124827995</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -729,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01350025871864191</v>
+        <v>-0.02014096824808498</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -740,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.0133921240859427</v>
+        <v>-0.02072594375169834</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01285972247115508</v>
+        <v>-0.02176651015620112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01083235595499188</v>
+        <v>-0.02191803831577765</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.009905252162453859</v>
+        <v>-0.02202663555906903</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -784,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.008374803542518627</v>
+        <v>-0.02270297077308403</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -795,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.008080689980008771</v>
+        <v>-0.02272326525939816</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.007253073127017284</v>
+        <v>-0.02331970100571179</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -817,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.006015073522256609</v>
+        <v>-0.02344675863108714</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -828,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.00573368546991504</v>
+        <v>-0.02577835335771728</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -839,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.004792671930630599</v>
+        <v>-0.02627246470526001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -850,7 +868,73 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.006670797386655991</v>
+        <v>-0.02649442024941273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>-0.0273682258089285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>-0.02953939901433755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>-0.03379540271081827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>-0.04220581796786294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>-0.04477758177365032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>-0.04663392782742404</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,118 +22,118 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
     <t>华安</t>
   </si>
   <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>大成</t>
+    <t>海富通</t>
   </si>
   <si>
     <t>招商</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
   </si>
   <si>
     <t>上投摩根</t>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0006273639975766798</v>
+        <v>0.01539267467337457</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.001847905396606064</v>
+        <v>0.01460817690199656</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.003377900668414036</v>
+        <v>0.00973510615171036</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.0036200055648693</v>
+        <v>0.009399159113464561</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.004620936567128142</v>
+        <v>0.00936027038736098</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.00769439015170581</v>
+        <v>0.009277745233827073</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.008878551977002047</v>
+        <v>0.009207671159992215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.01005093680364932</v>
+        <v>0.008428684072814718</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.01293937852646621</v>
+        <v>0.008371854980811833</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.01347157403515786</v>
+        <v>0.007548469665772828</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.01350945925560554</v>
+        <v>0.006588248820280418</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.01351474428540644</v>
+        <v>0.006229153987568958</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.01693537265183764</v>
+        <v>0.005857219785840861</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-0.01739933581917052</v>
+        <v>0.005324539618530189</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.01816415375616665</v>
+        <v>0.00509842467941013</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.0183812043200493</v>
+        <v>0.004878182955877275</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.01840102751956585</v>
+        <v>0.004867652954730017</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.01854417344420967</v>
+        <v>0.004495091364272064</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.01976099754069083</v>
+        <v>0.004254361056299283</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-0.0198214325609869</v>
+        <v>0.004079412408884098</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.02008257124827995</v>
+        <v>0.003770246978529901</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.02014096824808498</v>
+        <v>0.003545724965188013</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.02072594375169834</v>
+        <v>0.003409547997009765</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.02176651015620112</v>
+        <v>0.003337334096526146</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.02191803831577765</v>
+        <v>0.002911072015316929</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.02202663555906903</v>
+        <v>0.002800773873901097</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.02270297077308403</v>
+        <v>0.002743546802667529</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.02272326525939816</v>
+        <v>0.002022602881384561</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.02331970100571179</v>
+        <v>0.001688100814076998</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.02344675863108714</v>
+        <v>0.001517896989813972</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.02577835335771728</v>
+        <v>0.001379607773559721</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.02627246470526001</v>
+        <v>0.001280845974283684</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.02649442024941273</v>
+        <v>-0.0006193970934293969</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.0273682258089285</v>
+        <v>-0.001331326235432195</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.02953939901433755</v>
+        <v>-0.004409739818468261</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.03379540271081827</v>
+        <v>-0.004470725669187492</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.04220581796786294</v>
+        <v>-0.00511672500868432</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.04477758177365032</v>
+        <v>-0.007299775926470908</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.04663392782742404</v>
+        <v>-0.008689001364002968</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
     <t>银华</t>
   </si>
   <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
     <t>交银施罗德</t>
   </si>
   <si>
-    <t>民生加银</t>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>天弘</t>
   </si>
   <si>
     <t>富国</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
   </si>
   <si>
     <t>华商</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01539267467337457</v>
+        <v>0.02500179665886404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01460817690199656</v>
+        <v>0.02389656709980015</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00973510615171036</v>
+        <v>0.02214261849183496</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.009399159113464561</v>
+        <v>0.02205873938621172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.00936027038736098</v>
+        <v>0.02170020215579815</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.009277745233827073</v>
+        <v>0.02135396744680529</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.009207671159992215</v>
+        <v>0.02089581409973107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.008428684072814718</v>
+        <v>0.02082433960534025</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.008371854980811833</v>
+        <v>0.02073760800220148</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.007548469665772828</v>
+        <v>0.01988860890766952</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.006588248820280418</v>
+        <v>0.01987986786238993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.006229153987568958</v>
+        <v>0.01979075637570005</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.005857219785840861</v>
+        <v>0.01968296773184841</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.005324539618530189</v>
+        <v>0.01867843325403817</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.00509842467941013</v>
+        <v>0.01821964828289557</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.004878182955877275</v>
+        <v>0.01763128040871642</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.004867652954730017</v>
+        <v>0.01729841860117509</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.004495091364272064</v>
+        <v>0.01653464641412628</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.004254361056299283</v>
+        <v>0.01621729820615525</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.004079412408884098</v>
+        <v>0.01580272406652372</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.003770246978529901</v>
+        <v>0.01494817790730729</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.003545724965188013</v>
+        <v>0.01378732182511744</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.003409547997009765</v>
+        <v>0.01332718854913173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.003337334096526146</v>
+        <v>0.01311539413218687</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.002911072015316929</v>
+        <v>0.01294591904885567</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.002800773873901097</v>
+        <v>0.01228816518710407</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.002743546802667529</v>
+        <v>0.01210195137088932</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.002022602881384561</v>
+        <v>0.0120995777587658</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001688100814076998</v>
+        <v>0.01100641806542213</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001517896989813972</v>
+        <v>0.01014618032549652</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001379607773559721</v>
+        <v>0.008642823144232814</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001280845974283684</v>
+        <v>0.006539447810327115</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.0006193970934293969</v>
+        <v>0.006511853888608643</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.001331326235432195</v>
+        <v>0.005954149472439108</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.004409739818468261</v>
+        <v>0.005168885039267712</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.004470725669187492</v>
+        <v>0.004597417899342426</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.00511672500868432</v>
+        <v>0.002707933543431462</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.007299775926470908</v>
+        <v>-0.002009982817785749</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.008689001364002968</v>
+        <v>-0.003482157371568206</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>东方公司</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>长信公司</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>安信公司</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>建信公司</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
     <t>兴全</t>
   </si>
   <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
   </si>
   <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中金</t>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>上投摩根</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>华商</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.02500179665886404</v>
+        <v>0.02194177941045083</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02389656709980015</v>
+        <v>0.01558472930293608</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02214261849183496</v>
+        <v>0.01542130388260898</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.02205873938621172</v>
+        <v>0.01382432921499621</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.02170020215579815</v>
+        <v>0.01364836632767985</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.02135396744680529</v>
+        <v>0.01283492512089368</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02089581409973107</v>
+        <v>0.01180806056742578</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02082433960534025</v>
+        <v>0.0115571990767025</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02073760800220148</v>
+        <v>0.01147637014594682</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01988860890766952</v>
+        <v>0.01102988837511032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01987986786238993</v>
+        <v>0.009877684188107416</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.01979075637570005</v>
+        <v>0.009007588807856237</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01968296773184841</v>
+        <v>0.008900041914070789</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.01867843325403817</v>
+        <v>0.00750866211167911</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01821964828289557</v>
+        <v>0.00734000887015096</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01763128040871642</v>
+        <v>0.006932685759023283</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01729841860117509</v>
+        <v>0.006459762080325726</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01653464641412628</v>
+        <v>0.006216645593394965</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01621729820615525</v>
+        <v>0.006076908521971847</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01580272406652372</v>
+        <v>0.006002203483068236</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01494817790730729</v>
+        <v>0.00512293510049</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01378732182511744</v>
+        <v>0.005029538520415322</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01332718854913173</v>
+        <v>0.004483903116805799</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01311539413218687</v>
+        <v>0.004285092366345777</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01294591904885567</v>
+        <v>0.003899338351835757</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01228816518710407</v>
+        <v>0.003542908053917548</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.01210195137088932</v>
+        <v>0.003036520902313544</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.0120995777587658</v>
+        <v>0.002862797341298462</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.01100641806542213</v>
+        <v>0.002628252048385349</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.01014618032549652</v>
+        <v>0.002574462748818229</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.008642823144232814</v>
+        <v>0.002562402321957036</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.006539447810327115</v>
+        <v>0.001695715046615698</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006511853888608643</v>
+        <v>0.0008705273560187798</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.005954149472439108</v>
+        <v>-0.0001709667663408743</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.005168885039267712</v>
+        <v>-0.0002221936083113274</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.004597417899342426</v>
+        <v>-0.002646196714530702</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.002707933543431462</v>
+        <v>-0.003819384863990694</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.002009982817785749</v>
+        <v>-0.003907576110397271</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.003482157371568206</v>
+        <v>-0.01737055156575962</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
     <t>诺德</t>
   </si>
   <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
     <t>华夏</t>
   </si>
   <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>易方达</t>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>招商</t>
   </si>
   <si>
     <t>中银</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>东方公司</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>长信公司</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>安信公司</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>建信公司</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.02194177941045083</v>
+        <v>0.0228366612155213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01558472930293608</v>
+        <v>0.02268544095449743</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01542130388260898</v>
+        <v>0.02042728670184846</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01382432921499621</v>
+        <v>0.01834436610785306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.01364836632767985</v>
+        <v>0.01704961379173886</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01283492512089368</v>
+        <v>0.01526348364243435</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.01180806056742578</v>
+        <v>0.01180869858139055</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0115571990767025</v>
+        <v>0.01176590896523177</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01147637014594682</v>
+        <v>0.01137009657785382</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01102988837511032</v>
+        <v>0.01073029270374581</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.009877684188107416</v>
+        <v>0.01049357838796228</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.009007588807856237</v>
+        <v>0.009756711670094065</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.008900041914070789</v>
+        <v>0.009463247453743051</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.00750866211167911</v>
+        <v>0.008710917144476582</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.00734000887015096</v>
+        <v>0.007945705917087764</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.006932685759023283</v>
+        <v>0.007414287128898689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.006459762080325726</v>
+        <v>0.005882636377113837</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.006216645593394965</v>
+        <v>0.003900660165374381</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.006076908521971847</v>
+        <v>0.003232724164721645</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.006002203483068236</v>
+        <v>0.002456440076839206</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.00512293510049</v>
+        <v>0.002132485848327592</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.005029538520415322</v>
+        <v>0.001921141790925507</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.004483903116805799</v>
+        <v>0.001593352418951755</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.004285092366345777</v>
+        <v>0.001384785099688646</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.003899338351835757</v>
+        <v>0.0001446593820337849</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.003542908053917548</v>
+        <v>-0.0001433729521314042</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.003036520902313544</v>
+        <v>-0.001336853916877212</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.002862797341298462</v>
+        <v>-0.002354961052873694</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.002628252048385349</v>
+        <v>-0.003564348016882213</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.002574462748818229</v>
+        <v>-0.003919542173524415</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.002562402321957036</v>
+        <v>-0.004307011551395235</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001695715046615698</v>
+        <v>-0.006065327285523781</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.0008705273560187798</v>
+        <v>-0.007087387881175911</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.0001709667663408743</v>
+        <v>-0.007229252398062602</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.0002221936083113274</v>
+        <v>-0.008157170863992369</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.002646196714530702</v>
+        <v>-0.01067102188054236</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.003819384863990694</v>
+        <v>-0.01352092367102675</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.003907576110397271</v>
+        <v>-0.01528249575634144</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.01737055156575962</v>
+        <v>-0.01966806999193982</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
     <t>中邮创业</t>
   </si>
   <si>
-    <t>华商</t>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>鹏华</t>
   </si>
   <si>
     <t>交银施罗德</t>
   </si>
   <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
+    <t>平安大华</t>
   </si>
   <si>
     <t>兴业</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中银</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0228366612155213</v>
+        <v>0.0006866091239043914</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02268544095449743</v>
+        <v>-0.00128519502053992</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02042728670184846</v>
+        <v>-0.004474820902448884</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01834436610785306</v>
+        <v>-0.007266243948551798</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.01704961379173886</v>
+        <v>-0.008245545956512501</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01526348364243435</v>
+        <v>-0.009158208494261411</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.01180869858139055</v>
+        <v>-0.009487768665103924</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.01176590896523177</v>
+        <v>-0.009751268177604189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01137009657785382</v>
+        <v>-0.009800504406949018</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01073029270374581</v>
+        <v>-0.009889027416949636</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01049357838796228</v>
+        <v>-0.009927916715297691</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.009756711670094065</v>
+        <v>-0.01017221761221521</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.009463247453743051</v>
+        <v>-0.01026921980798823</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.008710917144476582</v>
+        <v>-0.01038962758513273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.007945705917087764</v>
+        <v>-0.01082820718976141</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.007414287128898689</v>
+        <v>-0.01097043996652725</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.005882636377113837</v>
+        <v>-0.01115455030412671</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.003900660165374381</v>
+        <v>-0.01115612755506012</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.003232724164721645</v>
+        <v>-0.01120285247370345</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.002456440076839206</v>
+        <v>-0.01120362724642698</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.002132485848327592</v>
+        <v>-0.01124758845436635</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.001921141790925507</v>
+        <v>-0.01160838592635371</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.001593352418951755</v>
+        <v>-0.01210788840116794</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.001384785099688646</v>
+        <v>-0.01217238088058459</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.0001446593820337849</v>
+        <v>-0.0128955034747984</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.0001433729521314042</v>
+        <v>-0.01308780231752793</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.001336853916877212</v>
+        <v>-0.01325818633281795</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.002354961052873694</v>
+        <v>-0.01342430438285214</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.003564348016882213</v>
+        <v>-0.01401194979375142</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.003919542173524415</v>
+        <v>-0.01438716740323009</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.004307011551395235</v>
+        <v>-0.01441891781295535</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.006065327285523781</v>
+        <v>-0.01507131172358356</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.007087387881175911</v>
+        <v>-0.01510533756066235</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.007229252398062602</v>
+        <v>-0.01541067616014169</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.008157170863992369</v>
+        <v>-0.01722954075699357</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.01067102188054236</v>
+        <v>-0.01772688254921817</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.01352092367102675</v>
+        <v>-0.01808556330512801</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.01528249575634144</v>
+        <v>-0.01899531698913837</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.01966806999193982</v>
+        <v>-0.02932326405526609</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
     <t>长信</t>
   </si>
   <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
     <t>上投摩根</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0006866091239043914</v>
+        <v>-0.0254948787436966</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.00128519502053992</v>
+        <v>-0.03014002821039008</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.004474820902448884</v>
+        <v>-0.03098350641468317</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.007266243948551798</v>
+        <v>-0.03568897478692812</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.008245545956512501</v>
+        <v>-0.03617209720653136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.009158208494261411</v>
+        <v>-0.03618216682352071</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.009487768665103924</v>
+        <v>-0.03631056992763937</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.009751268177604189</v>
+        <v>-0.0369608161568924</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.009800504406949018</v>
+        <v>-0.0374336089947862</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.009889027416949636</v>
+        <v>-0.03810991287914156</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.009927916715297691</v>
+        <v>-0.03818084986995318</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.01017221761221521</v>
+        <v>-0.03844004946459878</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.01026921980798823</v>
+        <v>-0.03900623641310563</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-0.01038962758513273</v>
+        <v>-0.03922874200446025</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.01082820718976141</v>
+        <v>-0.04034829515492311</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.01097043996652725</v>
+        <v>-0.04036313460467611</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.01115455030412671</v>
+        <v>-0.0405943166911954</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.01115612755506012</v>
+        <v>-0.04106251212998757</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.01120285247370345</v>
+        <v>-0.04111516465013043</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-0.01120362724642698</v>
+        <v>-0.04290313532874468</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.01124758845436635</v>
+        <v>-0.04343526401937581</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.01160838592635371</v>
+        <v>-0.04419676533813188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.01210788840116794</v>
+        <v>-0.0443207871144552</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.01217238088058459</v>
+        <v>-0.0451852400061562</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.0128955034747984</v>
+        <v>-0.04524264875463391</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.01308780231752793</v>
+        <v>-0.04551737052102467</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.01325818633281795</v>
+        <v>-0.04552332587142149</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.01342430438285214</v>
+        <v>-0.04558738375808213</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.01401194979375142</v>
+        <v>-0.04611805806568858</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.01438716740323009</v>
+        <v>-0.04675747582501066</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.01441891781295535</v>
+        <v>-0.0468282989137645</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.01507131172358356</v>
+        <v>-0.04707583247995739</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.01510533756066235</v>
+        <v>-0.04774195224761091</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.01541067616014169</v>
+        <v>-0.04880096138753209</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.01722954075699357</v>
+        <v>-0.04899975610556717</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.01772688254921817</v>
+        <v>-0.05079967299667631</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.01808556330512801</v>
+        <v>-0.05237428590069426</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.01899531698913837</v>
+        <v>-0.05407415561053663</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.02932326405526609</v>
+        <v>-0.06397923300508135</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,118 +22,118 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>鹏华</t>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>中金</t>
   </si>
   <si>
     <t>华安</t>
   </si>
   <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>华夏</t>
   </si>
   <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
     <t>大成</t>
   </si>
   <si>
     <t>兴业</t>
   </si>
   <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>银华</t>
   </si>
   <si>
     <t>安信</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>长信</t>
   </si>
   <si>
     <t>上投摩根</t>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>-0.0254948787436966</v>
+        <v>-0.01152168878268867</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.03014002821039008</v>
+        <v>-0.01502200445472257</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.03098350641468317</v>
+        <v>-0.01517564886855183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.03568897478692812</v>
+        <v>-0.01772483726436047</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.03617209720653136</v>
+        <v>-0.01946253714784718</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.03618216682352071</v>
+        <v>-0.01979732833280212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.03631056992763937</v>
+        <v>-0.02012326650247587</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.0369608161568924</v>
+        <v>-0.02012819250845344</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.0374336089947862</v>
+        <v>-0.02033177754677251</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.03810991287914156</v>
+        <v>-0.0222481383272396</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.03818084986995318</v>
+        <v>-0.02297437121135337</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.03844004946459878</v>
+        <v>-0.02353161594771902</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.03900623641310563</v>
+        <v>-0.02376238092337413</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-0.03922874200446025</v>
+        <v>-0.02420992665707156</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.04034829515492311</v>
+        <v>-0.02421587651550261</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.04036313460467611</v>
+        <v>-0.02550805071448137</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.0405943166911954</v>
+        <v>-0.02557152405791807</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.04106251212998757</v>
+        <v>-0.02659851045010275</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.04111516465013043</v>
+        <v>-0.02662898668823765</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-0.04290313532874468</v>
+        <v>-0.02686204455155305</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.04343526401937581</v>
+        <v>-0.02703786076067949</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.04419676533813188</v>
+        <v>-0.02798419286515064</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.0443207871144552</v>
+        <v>-0.02811179635342953</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.0451852400061562</v>
+        <v>-0.02862102398536592</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.04524264875463391</v>
+        <v>-0.02893247411136723</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.04551737052102467</v>
+        <v>-0.0291724620485494</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.04552332587142149</v>
+        <v>-0.02926220260083245</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.04558738375808213</v>
+        <v>-0.02929174471822882</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.04611805806568858</v>
+        <v>-0.02940177190136317</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.04675747582501066</v>
+        <v>-0.0302590690431459</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.0468282989137645</v>
+        <v>-0.03031020043396271</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.04707583247995739</v>
+        <v>-0.03091734890852404</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.04774195224761091</v>
+        <v>-0.03212286835595413</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.04880096138753209</v>
+        <v>-0.03238209564669658</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.04899975610556717</v>
+        <v>-0.03328642095346779</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.05079967299667631</v>
+        <v>-0.03343822241350025</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.05237428590069426</v>
+        <v>-0.03345069293357472</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.05407415561053663</v>
+        <v>-0.03504565280482175</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.06397923300508135</v>
+        <v>-0.04470526657645335</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
     <t>鹏华</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
     <t>东方</t>
   </si>
   <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安大华</t>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
   </si>
   <si>
     <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>-0.01152168878268867</v>
+        <v>0.01814039810473078</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.01502200445472257</v>
+        <v>0.01204231489946173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.01517564886855183</v>
+        <v>0.007578552669129879</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.01772483726436047</v>
+        <v>0.006930719226581061</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.01946253714784718</v>
+        <v>0.006606194087879214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.01979732833280212</v>
+        <v>0.006553667969885657</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.02012326650247587</v>
+        <v>0.006407201341959601</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.02012819250845344</v>
+        <v>0.005415850923432108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.02033177754677251</v>
+        <v>0.005214086602771895</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.0222481383272396</v>
+        <v>0.004910723544295559</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.02297437121135337</v>
+        <v>0.004756458923689921</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.02353161594771902</v>
+        <v>0.003614242881797347</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.02376238092337413</v>
+        <v>0.002978060416612749</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-0.02420992665707156</v>
+        <v>0.002364485525248705</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.02421587651550261</v>
+        <v>0.002105473677256997</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.02550805071448137</v>
+        <v>0.002055789368523131</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.02557152405791807</v>
+        <v>0.001385496605892822</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.02659851045010275</v>
+        <v>0.001336948345909139</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.02662898668823765</v>
+        <v>0.0009611850994790672</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-0.02686204455155305</v>
+        <v>0.0008836626114354651</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.02703786076067949</v>
+        <v>0.0007074322080498074</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.02798419286515064</v>
+        <v>8.813220700987223e-05</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.02811179635342953</v>
+        <v>-0.0007111510425181766</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.02862102398536592</v>
+        <v>-0.0008714624926483561</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.02893247411136723</v>
+        <v>-0.0009229735553081264</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.0291724620485494</v>
+        <v>-0.000995269942072885</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.02926220260083245</v>
+        <v>-0.001369474785187785</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.02929174471822882</v>
+        <v>-0.001391005806419598</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.02940177190136317</v>
+        <v>-0.002212840600041788</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.0302590690431459</v>
+        <v>-0.002579499936078755</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.03031020043396271</v>
+        <v>-0.003330310561179051</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.03091734890852404</v>
+        <v>-0.003522234544195757</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.03212286835595413</v>
+        <v>-0.004157532663267127</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.03238209564669658</v>
+        <v>-0.00421752305763845</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.03328642095346779</v>
+        <v>-0.004899833375059615</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.03343822241350025</v>
+        <v>-0.00649064782798825</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.03345069293357472</v>
+        <v>-0.007599255753200529</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.03504565280482175</v>
+        <v>-0.00781967314710863</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.04470526657645335</v>
+        <v>-0.01580414076213132</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
     <t>汇添富</t>
   </si>
   <si>
+    <t>大成</t>
+  </si>
+  <si>
     <t>中金</t>
   </si>
   <si>
-    <t>中欧</t>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
   </si>
   <si>
     <t>博时</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01814039810473078</v>
+        <v>0.001624260193337168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01204231489946173</v>
+        <v>-0.004606206457228534</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.007578552669129879</v>
+        <v>-0.004661048078432817</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.006930719226581061</v>
+        <v>-0.006569015266700728</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.006606194087879214</v>
+        <v>-0.007673270842386892</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.006553667969885657</v>
+        <v>-0.008069366553300372</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.006407201341959601</v>
+        <v>-0.00900266609227629</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.005415850923432108</v>
+        <v>-0.009129158673060078</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.005214086602771895</v>
+        <v>-0.009889985276294144</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.004910723544295559</v>
+        <v>-0.01047620308438202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.004756458923689921</v>
+        <v>-0.01092292507707127</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.003614242881797347</v>
+        <v>-0.01103909263559055</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.002978060416612749</v>
+        <v>-0.01144253698723863</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.002364485525248705</v>
+        <v>-0.01171766880840974</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.002105473677256997</v>
+        <v>-0.01185799146781019</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.002055789368523131</v>
+        <v>-0.01215279200175279</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.001385496605892822</v>
+        <v>-0.01306427755301209</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.001336948345909139</v>
+        <v>-0.01308179970782564</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.0009611850994790672</v>
+        <v>-0.01324209224427753</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0008836626114354651</v>
+        <v>-0.01345974675570105</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.0007074322080498074</v>
+        <v>-0.01387977016323938</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>8.813220700987223e-05</v>
+        <v>-0.01459225501282557</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.0007111510425181766</v>
+        <v>-0.01468666209512892</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.0008714624926483561</v>
+        <v>-0.01483361879204459</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.0009229735553081264</v>
+        <v>-0.01516655811542533</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.000995269942072885</v>
+        <v>-0.01519974274289271</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.001369474785187785</v>
+        <v>-0.01578002423912317</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.001391005806419598</v>
+        <v>-0.01592242215010775</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.002212840600041788</v>
+        <v>-0.0164471782071689</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.002579499936078755</v>
+        <v>-0.01684783807116141</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.003330310561179051</v>
+        <v>-0.01734243516254186</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.003522234544195757</v>
+        <v>-0.01849651045638057</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.004157532663267127</v>
+        <v>-0.01887429857052969</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.00421752305763845</v>
+        <v>-0.01900041873681846</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.004899833375059615</v>
+        <v>-0.01927298321987969</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.00649064782798825</v>
+        <v>-0.01927915774014466</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.007599255753200529</v>
+        <v>-0.02127551312069531</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.00781967314710863</v>
+        <v>-0.02318450648602466</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.01580414076213132</v>
+        <v>-0.02417072829263189</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
     <t>中欧</t>
   </si>
   <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
     <t>华商</t>
   </si>
   <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
     <t>诺安</t>
   </si>
   <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
     <t>中金</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
     <t>兴业</t>
   </si>
   <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
     <t>长盛</t>
   </si>
   <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
     <t>中邮创业</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>博时</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.001624260193337168</v>
+        <v>0.07578385912167351</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.004606206457228534</v>
+        <v>0.06941024855506273</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.004661048078432817</v>
+        <v>0.06697375574631126</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.006569015266700728</v>
+        <v>0.06355193905549772</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.007673270842386892</v>
+        <v>0.06341011718273082</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.008069366553300372</v>
+        <v>0.05979874934464391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.00900266609227629</v>
+        <v>0.05833974329953495</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.009129158673060078</v>
+        <v>0.05747914677100052</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.009889985276294144</v>
+        <v>0.05706850019084952</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.01047620308438202</v>
+        <v>0.05700121981994233</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.01092292507707127</v>
+        <v>0.05623582958609696</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.01103909263559055</v>
+        <v>0.0556514756019475</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.01144253698723863</v>
+        <v>0.05471069274722695</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-0.01171766880840974</v>
+        <v>0.05386615685273699</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.01185799146781019</v>
+        <v>0.05378888360330203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.01215279200175279</v>
+        <v>0.05296188058608498</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.01306427755301209</v>
+        <v>0.05295177288791408</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.01308179970782564</v>
+        <v>0.0519205313269957</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.01324209224427753</v>
+        <v>0.05170383165589865</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-0.01345974675570105</v>
+        <v>0.05036039269862691</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.01387977016323938</v>
+        <v>0.04787113962404166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.01459225501282557</v>
+        <v>0.04786444822377556</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.01468666209512892</v>
+        <v>0.04759917233103139</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.01483361879204459</v>
+        <v>0.04753637108548614</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.01516655811542533</v>
+        <v>0.0465809473395209</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.01519974274289271</v>
+        <v>0.04588466096261179</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.01578002423912317</v>
+        <v>0.04531259918905151</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.01592242215010775</v>
+        <v>0.04526790748236431</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.0164471782071689</v>
+        <v>0.04411358487317707</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.01684783807116141</v>
+        <v>0.04230876594623778</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.01734243516254186</v>
+        <v>0.04202063271748901</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.01849651045638057</v>
+        <v>0.04200029427756746</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.01887429857052969</v>
+        <v>0.04149273245367224</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.01900041873681846</v>
+        <v>0.04082217010473199</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.01927298321987969</v>
+        <v>0.04038528220434356</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.01927915774014466</v>
+        <v>0.0392257444778632</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-0.02127551312069531</v>
+        <v>0.03643882559412481</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-0.02318450648602466</v>
+        <v>0.03516900422834968</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-0.02417072829263189</v>
+        <v>0.03164889612761446</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -22,121 +22,121 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
     <t>上投摩根</t>
   </si>
   <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
     <t>诺德</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.07578385912167351</v>
+        <v>-0.004352263430158598</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06941024855506273</v>
+        <v>-0.005227486154379624</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06697375574631126</v>
+        <v>-0.005833242803998884</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.06355193905549772</v>
+        <v>-0.006149586739545576</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.06341011718273082</v>
+        <v>-0.006562191862080513</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05979874934464391</v>
+        <v>-0.006865865738349131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05833974329953495</v>
+        <v>-0.009827448374991832</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05747914677100052</v>
+        <v>-0.01133534877377651</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05706850019084952</v>
+        <v>-0.01179977671794408</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.05700121981994233</v>
+        <v>-0.01181990408921407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.05623582958609696</v>
+        <v>-0.01190320566367065</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0556514756019475</v>
+        <v>-0.01273720313948068</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.05471069274722695</v>
+        <v>-0.01291006441964726</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.05386615685273699</v>
+        <v>-0.01310531087912048</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.05378888360330203</v>
+        <v>-0.01343289527111258</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.05296188058608498</v>
+        <v>-0.01366899854022841</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.05295177288791408</v>
+        <v>-0.0139850015442452</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.0519205313269957</v>
+        <v>-0.0140809679330971</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.05170383165589865</v>
+        <v>-0.01510480558048288</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.05036039269862691</v>
+        <v>-0.01550625298205199</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.04787113962404166</v>
+        <v>-0.01568925240727481</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.04786444822377556</v>
+        <v>-0.01596031397209297</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.04759917233103139</v>
+        <v>-0.01629097978460314</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.04753637108548614</v>
+        <v>-0.01704586331392477</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.0465809473395209</v>
+        <v>-0.01706248146723321</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.04588466096261179</v>
+        <v>-0.01715774069947973</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.04531259918905151</v>
+        <v>-0.01828672047494273</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.04526790748236431</v>
+        <v>-0.01863478922967532</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.04411358487317707</v>
+        <v>-0.01875665244417213</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -835,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.04230876594623778</v>
+        <v>-0.01905978355842008</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.04202063271748901</v>
+        <v>-0.01947931922412383</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.04200029427756746</v>
+        <v>-0.01970559754150791</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -868,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.04149273245367224</v>
+        <v>-0.02075729586028185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.04082217010473199</v>
+        <v>-0.02142607577189726</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.04038528220434356</v>
+        <v>-0.02176204377337865</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -901,7 +901,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.0392257444778632</v>
+        <v>-0.02219558407352662</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -912,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.03643882559412481</v>
+        <v>-0.02383709536162759</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.03516900422834968</v>
+        <v>-0.02490960249912422</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.03164889612761446</v>
+        <v>-0.02671928777461763</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -14,126 +14,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>WTD</t>
+  </si>
+  <si>
+    <t>YTD</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>收益率</t>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>平安大华</t>
   </si>
   <si>
     <t>中邮创业</t>
   </si>
   <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
     <t>汇丰晋信</t>
   </si>
   <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>海富通</t>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>中银</t>
   </si>
   <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
     <t>上投摩根</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>南方</t>
   </si>
   <si>
     <t>诺德</t>
@@ -494,447 +500,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.008366310512574415</v>
       </c>
       <c r="C2">
-        <v>-0.004352263430158598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.008366310512574415</v>
+      </c>
+      <c r="D2">
+        <v>0.008366310512574415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.008341343138580593</v>
       </c>
       <c r="C3">
-        <v>-0.005227486154379624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.008341343138580593</v>
+      </c>
+      <c r="D3">
+        <v>0.008341343138580593</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.007780024616393266</v>
       </c>
       <c r="C4">
-        <v>-0.005833242803998884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.007780024616393266</v>
+      </c>
+      <c r="D4">
+        <v>0.007780024616393266</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.007445771540839363</v>
       </c>
       <c r="C5">
-        <v>-0.006149586739545576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.007445771540839363</v>
+      </c>
+      <c r="D5">
+        <v>0.007445771540839363</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.007079124256932356</v>
       </c>
       <c r="C6">
-        <v>-0.006562191862080513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.007079124256932356</v>
+      </c>
+      <c r="D6">
+        <v>0.007079124256932356</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.006558260254855064</v>
       </c>
       <c r="C7">
-        <v>-0.006865865738349131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.006558260254855064</v>
+      </c>
+      <c r="D7">
+        <v>0.006558260254855064</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.005953748974364625</v>
       </c>
       <c r="C8">
-        <v>-0.009827448374991832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.005953748974364625</v>
+      </c>
+      <c r="D8">
+        <v>0.005953748974364625</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.004150201104260898</v>
       </c>
       <c r="C9">
-        <v>-0.01133534877377651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.004150201104260898</v>
+      </c>
+      <c r="D9">
+        <v>0.004150201104260898</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.003781743892698142</v>
       </c>
       <c r="C10">
-        <v>-0.01179977671794408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.003781743892698142</v>
+      </c>
+      <c r="D10">
+        <v>0.003781743892698142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.002940129047919848</v>
       </c>
       <c r="C11">
-        <v>-0.01181990408921407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.002940129047919848</v>
+      </c>
+      <c r="D11">
+        <v>0.002940129047919848</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.002147993857443575</v>
       </c>
       <c r="C12">
-        <v>-0.01190320566367065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.002147993857443575</v>
+      </c>
+      <c r="D12">
+        <v>0.002147993857443575</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.001497010165654622</v>
       </c>
       <c r="C13">
-        <v>-0.01273720313948068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.001497010165654622</v>
+      </c>
+      <c r="D13">
+        <v>0.001497010165654622</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.00118488435770514</v>
       </c>
       <c r="C14">
-        <v>-0.01291006441964726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.00118488435770514</v>
+      </c>
+      <c r="D14">
+        <v>0.00118488435770514</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.001178273498267934</v>
       </c>
       <c r="C15">
-        <v>-0.01310531087912048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001178273498267934</v>
+      </c>
+      <c r="D15">
+        <v>0.001178273498267934</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.0003976276914845478</v>
       </c>
       <c r="C16">
-        <v>-0.01343289527111258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0003976276914845478</v>
+      </c>
+      <c r="D16">
+        <v>0.0003976276914845478</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.0003830475420749657</v>
       </c>
       <c r="C17">
-        <v>-0.01366899854022841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.0003830475420749657</v>
+      </c>
+      <c r="D17">
+        <v>0.0003830475420749657</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0.0003007442507645397</v>
       </c>
       <c r="C18">
-        <v>-0.0139850015442452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0003007442507645397</v>
+      </c>
+      <c r="D18">
+        <v>0.0003007442507645397</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.0002383574951292378</v>
       </c>
       <c r="C19">
-        <v>-0.0140809679330971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.0002383574951292378</v>
+      </c>
+      <c r="D19">
+        <v>0.0002383574951292378</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.0001502634061958386</v>
       </c>
       <c r="C20">
-        <v>-0.01510480558048288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0001502634061958386</v>
+      </c>
+      <c r="D20">
+        <v>0.0001502634061958386</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>3.6815385509259e-05</v>
       </c>
       <c r="C21">
-        <v>-0.01550625298205199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>3.6815385509259e-05</v>
+      </c>
+      <c r="D21">
+        <v>3.6815385509259e-05</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>-0.0003023198315720288</v>
       </c>
       <c r="C22">
-        <v>-0.01568925240727481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0003023198315720288</v>
+      </c>
+      <c r="D22">
+        <v>-0.0003023198315720288</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>-0.0007078888342205714</v>
       </c>
       <c r="C23">
-        <v>-0.01596031397209297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0007078888342205714</v>
+      </c>
+      <c r="D23">
+        <v>-0.0007078888342205714</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>-0.0009378600578757723</v>
       </c>
       <c r="C24">
-        <v>-0.01629097978460314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.0009378600578757723</v>
+      </c>
+      <c r="D24">
+        <v>-0.0009378600578757723</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>-0.001490663133337122</v>
       </c>
       <c r="C25">
-        <v>-0.01704586331392477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.001490663133337122</v>
+      </c>
+      <c r="D25">
+        <v>-0.001490663133337122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>-0.001509482591745104</v>
       </c>
       <c r="C26">
-        <v>-0.01706248146723321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001509482591745104</v>
+      </c>
+      <c r="D26">
+        <v>-0.001509482591745104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>-0.001889727955401765</v>
       </c>
       <c r="C27">
-        <v>-0.01715774069947973</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>-0.001889727955401765</v>
+      </c>
+      <c r="D27">
+        <v>-0.001889727955401765</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>-0.001952011526593189</v>
       </c>
       <c r="C28">
-        <v>-0.01828672047494273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.001952011526593189</v>
+      </c>
+      <c r="D28">
+        <v>-0.001952011526593189</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>-0.002178521348275786</v>
       </c>
       <c r="C29">
-        <v>-0.01863478922967532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.002178521348275786</v>
+      </c>
+      <c r="D29">
+        <v>-0.002178521348275786</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>-0.002982656022334385</v>
       </c>
       <c r="C30">
-        <v>-0.01875665244417213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.002982656022334385</v>
+      </c>
+      <c r="D30">
+        <v>-0.002982656022334385</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>-0.003462399809175842</v>
       </c>
       <c r="C31">
-        <v>-0.01905978355842008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.003462399809175842</v>
+      </c>
+      <c r="D31">
+        <v>-0.003462399809175842</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>-0.003963792455377368</v>
       </c>
       <c r="C32">
-        <v>-0.01947931922412383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.003963792455377368</v>
+      </c>
+      <c r="D32">
+        <v>-0.003963792455377368</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>-0.00543977242709337</v>
       </c>
       <c r="C33">
-        <v>-0.01970559754150791</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.00543977242709337</v>
+      </c>
+      <c r="D33">
+        <v>-0.00543977242709337</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>-0.005838373166183186</v>
       </c>
       <c r="C34">
-        <v>-0.02075729586028185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.005838373166183186</v>
+      </c>
+      <c r="D34">
+        <v>-0.005838373166183186</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>-0.006094725161250425</v>
       </c>
       <c r="C35">
-        <v>-0.02142607577189726</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.006094725161250425</v>
+      </c>
+      <c r="D35">
+        <v>-0.006094725161250425</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>-0.006320252781701785</v>
       </c>
       <c r="C36">
-        <v>-0.02176204377337865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.006320252781701785</v>
+      </c>
+      <c r="D36">
+        <v>-0.006320252781701785</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>-0.006708436019870034</v>
       </c>
       <c r="C37">
-        <v>-0.02219558407352662</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006708436019870034</v>
+      </c>
+      <c r="D37">
+        <v>-0.006708436019870034</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>-0.008140532767144992</v>
       </c>
       <c r="C38">
-        <v>-0.02383709536162759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.008140532767144992</v>
+      </c>
+      <c r="D38">
+        <v>-0.008140532767144992</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>-0.01003229135916917</v>
       </c>
       <c r="C39">
-        <v>-0.02490960249912422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01003229135916917</v>
+      </c>
+      <c r="D39">
+        <v>-0.01003229135916917</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>-0.01688191173860398</v>
       </c>
       <c r="C40">
-        <v>-0.02671928777461763</v>
+        <v>-0.01688191173860398</v>
+      </c>
+      <c r="D40">
+        <v>-0.01688191173860398</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\FOF\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>MTD</t>
   </si>
@@ -28,132 +33,135 @@
     <t>名称</t>
   </si>
   <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>兴业</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>平安大华</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
     <t>鹏华</t>
   </si>
   <si>
     <t>海富通</t>
   </si>
   <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
     <t>招商</t>
   </si>
   <si>
-    <t>富国</t>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>华商</t>
   </si>
   <si>
     <t>博时</t>
   </si>
   <si>
-    <t>平安大华</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>华商</t>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>民生加银</t>
   </si>
   <si>
     <t>中银</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>诺德</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,8 +169,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,15 +223,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +313,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,691 +524,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.008366310512574415</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.008366310512574415</v>
+        <v>2.673788674613475E-2</v>
       </c>
       <c r="D2">
-        <v>0.008366310512574415</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2.7046672262615919E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.7046672262615919E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.008341343138580593</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.008341343138580593</v>
+        <v>2.5440104340511919E-2</v>
       </c>
       <c r="D3">
-        <v>0.008341343138580593</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8.1287150058109159E-3</v>
+      </c>
+      <c r="E3">
+        <v>8.1287150058109159E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.007780024616393266</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.007780024616393266</v>
+        <v>2.43105947640232E-2</v>
       </c>
       <c r="D4">
-        <v>0.007780024616393266</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2.4554746871625621E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.4554746871625621E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.007445771540839363</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.007445771540839363</v>
+        <v>2.4290120463595691E-2</v>
       </c>
       <c r="D5">
-        <v>0.007445771540839363</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.0743618545961739E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.0743618545961739E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.007079124256932356</v>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.007079124256932356</v>
+        <v>2.411129107301058E-2</v>
       </c>
       <c r="D6">
-        <v>0.007079124256932356</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.1880242762397421E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.1880242762397421E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0.006558260254855064</v>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.006558260254855064</v>
+        <v>2.3832325465884981E-2</v>
       </c>
       <c r="D7">
-        <v>0.006558260254855064</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.6842524626186529E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.6842524626186529E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0.005953748974364625</v>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.005953748974364625</v>
+        <v>2.2028806085377939E-2</v>
       </c>
       <c r="D8">
-        <v>0.005953748974364625</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.37089471004741E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.37089471004741E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>0.004150201104260898</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0.004150201104260898</v>
+        <v>2.1982620019635579E-2</v>
       </c>
       <c r="D9">
-        <v>0.004150201104260898</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1.793169302087461E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.793169302087461E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>0.003781743892698142</v>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.003781743892698142</v>
+        <v>2.1849802173824932E-2</v>
       </c>
       <c r="D10">
-        <v>0.003781743892698142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1.1598307233108059E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.1598307233108059E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>0.002940129047919848</v>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0.002940129047919848</v>
+        <v>2.06407955023864E-2</v>
       </c>
       <c r="D11">
-        <v>0.002940129047919848</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.739404322485227E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.739404322485227E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.002147993857443575</v>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0.002147993857443575</v>
+        <v>2.0497487910446251E-2</v>
       </c>
       <c r="D12">
-        <v>0.002147993857443575</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.4946213813793021E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.4946213813793021E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.001497010165654622</v>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>0.001497010165654622</v>
+        <v>2.0129501331906271E-2</v>
       </c>
       <c r="D13">
-        <v>0.001497010165654622</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1.9821095952882169E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.9821095952882169E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.00118488435770514</v>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0.00118488435770514</v>
+        <v>1.9696845284166601E-2</v>
       </c>
       <c r="D14">
-        <v>0.00118488435770514</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>1.985006840542591E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.985006840542591E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.001178273498267934</v>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>0.001178273498267934</v>
+        <v>1.9138697951736731E-2</v>
       </c>
       <c r="D15">
-        <v>0.001178273498267934</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>2.5822474768698589E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.5822474768698589E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.0003976276914845478</v>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>0.0003976276914845478</v>
+        <v>1.8992028942178552E-2</v>
       </c>
       <c r="D16">
-        <v>0.0003976276914845478</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1.304277322384806E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.304277322384806E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>0.0003830475420749657</v>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>0.0003830475420749657</v>
+        <v>1.896587144642958E-2</v>
       </c>
       <c r="D17">
-        <v>0.0003830475420749657</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2.3194784731310761E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.3194784731310761E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>0.0003007442507645397</v>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>0.0003007442507645397</v>
+        <v>1.8820530884163359E-2</v>
       </c>
       <c r="D18">
-        <v>0.0003007442507645397</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>2.1008951126340051E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.1008951126340051E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>0.0002383574951292378</v>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>0.0002383574951292378</v>
+        <v>1.8303430315270489E-2</v>
       </c>
       <c r="D19">
-        <v>0.0002383574951292378</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1.209715077674001E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.209715077674001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>0.0001502634061958386</v>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>0.0001502634061958386</v>
+        <v>1.8254266978084081E-2</v>
       </c>
       <c r="D20">
-        <v>0.0001502634061958386</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>2.5835955620487679E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.5835955620487679E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>3.6815385509259e-05</v>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>3.6815385509259e-05</v>
+        <v>1.783751298439817E-2</v>
       </c>
       <c r="D21">
-        <v>3.6815385509259e-05</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>1.7116997173905579E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.7116997173905579E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>-0.0003023198315720288</v>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>-0.0003023198315720288</v>
+        <v>1.754334374845401E-2</v>
       </c>
       <c r="D22">
-        <v>-0.0003023198315720288</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1.562046364593983E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.562046364593983E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>-0.0007078888342205714</v>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>-0.0007078888342205714</v>
+        <v>1.7444777528332619E-2</v>
       </c>
       <c r="D23">
-        <v>-0.0007078888342205714</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>2.5957036466531799E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.5957036466531799E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>-0.0009378600578757723</v>
+      <c r="B24" t="s">
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>-0.0009378600578757723</v>
+        <v>1.734001379657513E-2</v>
       </c>
       <c r="D24">
-        <v>-0.0009378600578757723</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>2.582599594026069E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.582599594026069E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>-0.001490663133337122</v>
+      <c r="B25" t="s">
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>-0.001490663133337122</v>
+        <v>1.728525521772584E-2</v>
       </c>
       <c r="D25">
-        <v>-0.001490663133337122</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>2.33419162626145E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.33419162626145E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>-0.001509482591745104</v>
+      <c r="B26" t="s">
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>-0.001509482591745104</v>
+        <v>1.681436983694962E-2</v>
       </c>
       <c r="D26">
-        <v>-0.001509482591745104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1.8012455261586121E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.8012455261586121E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>-0.001889727955401765</v>
+      <c r="B27" t="s">
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>-0.001889727955401765</v>
+        <v>1.6704492834310081E-2</v>
       </c>
       <c r="D27">
-        <v>-0.001889727955401765</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>9.8839957930167976E-3</v>
+      </c>
+      <c r="E27">
+        <v>9.8839957930167976E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <v>-0.001952011526593189</v>
+      <c r="B28" t="s">
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>-0.001952011526593189</v>
+        <v>1.657269786108051E-2</v>
       </c>
       <c r="D28">
-        <v>-0.001952011526593189</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>2.4481658474793111E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.4481658474793111E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
-        <v>-0.002178521348275786</v>
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>-0.002178521348275786</v>
+        <v>1.6354823737372071E-2</v>
       </c>
       <c r="D29">
-        <v>-0.002178521348275786</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>1.755908666989647E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.755908666989647E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>-0.002982656022334385</v>
+      <c r="B30" t="s">
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>-0.002982656022334385</v>
+        <v>1.610244430569718E-2</v>
       </c>
       <c r="D30">
-        <v>-0.002982656022334385</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>1.9945083518805969E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.9945083518805969E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>-0.003462399809175842</v>
+      <c r="B31" t="s">
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>-0.003462399809175842</v>
+        <v>1.584948179467438E-2</v>
       </c>
       <c r="D31">
-        <v>-0.003462399809175842</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1.4316074686072209E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.4316074686072209E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
-        <v>-0.003963792455377368</v>
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>-0.003963792455377368</v>
+        <v>1.568398464944298E-2</v>
       </c>
       <c r="D32">
-        <v>-0.003963792455377368</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1.5721377446893389E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.5721377446893389E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>-0.00543977242709337</v>
+      <c r="B33" t="s">
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>-0.00543977242709337</v>
+        <v>1.471776620047183E-2</v>
       </c>
       <c r="D33">
-        <v>-0.00543977242709337</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1.5106451346714509E-2</v>
+      </c>
+      <c r="E33">
+        <v>1.5106451346714509E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
-        <v>-0.005838373166183186</v>
+      <c r="B34" t="s">
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>-0.005838373166183186</v>
+        <v>1.3906819686313909E-2</v>
       </c>
       <c r="D34">
-        <v>-0.005838373166183186</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>1.5424648502411211E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.5424648502411211E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
-        <v>-0.006094725161250425</v>
+      <c r="B35" t="s">
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>-0.006094725161250425</v>
+        <v>1.3084715628343121E-2</v>
       </c>
       <c r="D35">
-        <v>-0.006094725161250425</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>1.006303240013917E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.006303240013917E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
-        <v>-0.006320252781701785</v>
+      <c r="B36" t="s">
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>-0.006320252781701785</v>
+        <v>1.297474958674294E-2</v>
       </c>
       <c r="D36">
-        <v>-0.006320252781701785</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>1.337753639795358E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.337753639795358E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
-        <v>-0.006708436019870034</v>
+      <c r="B37" t="s">
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>-0.006708436019870034</v>
+        <v>1.271261712744187E-2</v>
       </c>
       <c r="D37">
-        <v>-0.006708436019870034</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>1.176283441373127E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.176283441373127E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
-        <v>-0.008140532767144992</v>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>-0.008140532767144992</v>
+        <v>1.254305748605034E-2</v>
       </c>
       <c r="D38">
-        <v>-0.008140532767144992</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>1.971097560548829E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.971097560548829E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
-        <v>-0.01003229135916917</v>
+      <c r="B39" t="s">
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>-0.01003229135916917</v>
+        <v>1.249080615617593E-2</v>
       </c>
       <c r="D39">
-        <v>-0.01003229135916917</v>
-      </c>
-      <c r="E39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>6.0916083221196349E-3</v>
+      </c>
+      <c r="E39">
+        <v>6.0916083221196349E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
-        <v>-0.01688191173860398</v>
+      <c r="B40" t="s">
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>-0.01688191173860398</v>
+        <v>1.213978059079324E-2</v>
       </c>
       <c r="D40">
-        <v>-0.01688191173860398</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
+        <v>1.016407207255599E-2</v>
+      </c>
+      <c r="E40">
+        <v>1.016407207255599E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>7.9173549003028754E-3</v>
+      </c>
+      <c r="D41">
+        <v>6.4148896579025996E-3</v>
+      </c>
+      <c r="E41">
+        <v>6.4148896579025996E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -16,136 +16,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>WTD</t>
+  </si>
+  <si>
     <t>MTD</t>
   </si>
   <si>
-    <t>WTD</t>
-  </si>
-  <si>
     <t>YTD</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>诺安</t>
   </si>
   <si>
     <t>招商</t>
   </si>
   <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
     <t>海富通</t>
   </si>
   <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>天弘</t>
-  </si>
-  <si>
-    <t>平安大华</t>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>前海开源</t>
   </si>
   <si>
     <t>易方达</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>长信</t>
   </si>
   <si>
     <t>安信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>兴业</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>中金</t>
   </si>
 </sst>
 </file>
@@ -527,680 +527,680 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.2041846613145657</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.06149532937604985</v>
+        <v>0.03038026787390979</v>
       </c>
       <c r="D2">
-        <v>0.2752829062864781</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>-0.05117837383959301</v>
+      </c>
+      <c r="E2">
+        <v>0.2462560376522107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.180309090180824</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.05772538511458847</v>
+        <v>0.02637849062213427</v>
       </c>
       <c r="D3">
-        <v>0.2200097677533093</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+        <v>-0.04372717545435356</v>
+      </c>
+      <c r="E3">
+        <v>0.1783976442078563</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.1571557740867584</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.05497099325912247</v>
+        <v>0.02501376034060687</v>
       </c>
       <c r="D4">
-        <v>0.1986484895082465</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+        <v>-0.05122161660339974</v>
+      </c>
+      <c r="E4">
+        <v>0.2431155995501322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.1547782162855609</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.05466573545461362</v>
+        <v>0.0249640143838088</v>
       </c>
       <c r="D5">
-        <v>0.2233828291119426</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>-0.03855482464656657</v>
+      </c>
+      <c r="E5">
+        <v>0.1892038436065788</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.1670322375133662</v>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.05442044695252179</v>
+        <v>0.02285557098555269</v>
       </c>
       <c r="D6">
-        <v>0.2126710915663379</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+        <v>-0.04863809442133227</v>
+      </c>
+      <c r="E6">
+        <v>0.2089377754867934</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0.1626238379009501</v>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.05436386213379474</v>
+        <v>0.02226042992265009</v>
       </c>
       <c r="D7">
-        <v>0.2323747141340333</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>-0.0514397594475654</v>
+      </c>
+      <c r="E7">
+        <v>0.1864694327545506</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0.1658599567300447</v>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.05057956659262408</v>
+        <v>0.0218873946744147</v>
       </c>
       <c r="D8">
-        <v>0.2289285558056229</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
+        <v>-0.04335847662729708</v>
+      </c>
+      <c r="E8">
+        <v>0.2480331412405674</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>0.1684566906024569</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0.05036560393165579</v>
+        <v>0.0217417173192842</v>
       </c>
       <c r="D9">
-        <v>0.2099230569763719</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>-0.04788560909073902</v>
+      </c>
+      <c r="E9">
+        <v>0.2194272620479851</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>0.1404821175095394</v>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.05034706448866655</v>
+        <v>0.02139919161860693</v>
       </c>
       <c r="D10">
-        <v>0.1833414260432511</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
+        <v>-0.05504544133217038</v>
+      </c>
+      <c r="E10">
+        <v>0.3090178272062718</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>0.1538113177348421</v>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0.05014822252766793</v>
+        <v>0.02131308482311334</v>
       </c>
       <c r="D11">
-        <v>0.1900583286247737</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
+        <v>-0.04981384382454401</v>
+      </c>
+      <c r="E11">
+        <v>0.1933280510061717</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.1534034243426621</v>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0.04975165596737163</v>
+        <v>0.02069028550476371</v>
       </c>
       <c r="D12">
-        <v>0.1957118311506454</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>-0.05055955343694907</v>
+      </c>
+      <c r="E12">
+        <v>0.2801012115339396</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.1235839000082146</v>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>0.04799908842414902</v>
+        <v>0.02058261055956612</v>
       </c>
       <c r="D13">
-        <v>0.1748285092980593</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
+        <v>-0.048502582650645</v>
+      </c>
+      <c r="E13">
+        <v>0.1917491995809932</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.1441263856811306</v>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0.04795229684588276</v>
+        <v>0.02007639407305684</v>
       </c>
       <c r="D14">
-        <v>0.1918796010036727</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
+        <v>-0.0601319798273332</v>
+      </c>
+      <c r="E14">
+        <v>0.1580639594938984</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.1534981543732272</v>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>0.04754363354562763</v>
+        <v>0.0199050087403303</v>
       </c>
       <c r="D15">
-        <v>0.1886848035652575</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
+        <v>-0.03445460242064458</v>
+      </c>
+      <c r="E15">
+        <v>0.2563335632126844</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.1682256624144927</v>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>0.04655296604342785</v>
+        <v>0.01929449463180877</v>
       </c>
       <c r="D16">
-        <v>0.213442669624323</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
+        <v>-0.02693380159139458</v>
+      </c>
+      <c r="E16">
+        <v>0.1339198370279158</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>0.1363455530683744</v>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>0.0460093531418615</v>
+        <v>0.01887034781719099</v>
       </c>
       <c r="D17">
-        <v>0.1741282486810427</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
+        <v>-0.06004924009147194</v>
+      </c>
+      <c r="E17">
+        <v>0.240232191800638</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>0.1362836292792919</v>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>0.04592385949191335</v>
+        <v>0.01770370978376579</v>
       </c>
       <c r="D18">
-        <v>0.1933689938514167</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
+        <v>-0.03389488786944928</v>
+      </c>
+      <c r="E18">
+        <v>0.2092223852906918</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>0.1619702945393859</v>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>0.04559521331153649</v>
+        <v>0.01683039116871843</v>
       </c>
       <c r="D19">
-        <v>0.1841159598654254</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
+        <v>-0.03488731491193564</v>
+      </c>
+      <c r="E19">
+        <v>0.2734427384134608</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>0.1412991609899794</v>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>0.04527845933477614</v>
+        <v>0.01664497320130742</v>
       </c>
       <c r="D20">
-        <v>0.1867382189446025</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
+        <v>-0.05053634928946771</v>
+      </c>
+      <c r="E20">
+        <v>0.1556606728246956</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>0.1342298644060633</v>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>0.0450632248615126</v>
+        <v>0.01625075749418503</v>
       </c>
       <c r="D21">
-        <v>0.1833457048808704</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
+        <v>-0.03772615651710631</v>
+      </c>
+      <c r="E21">
+        <v>0.1403160995827006</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>0.1627272998600287</v>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>0.04398957966259109</v>
+        <v>0.01598449185039663</v>
       </c>
       <c r="D22">
-        <v>0.2257405377247426</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
+        <v>-0.03507420950183338</v>
+      </c>
+      <c r="E22">
+        <v>0.124430098101042</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>0.08975426941059705</v>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>0.04389752676007075</v>
+        <v>0.01588700537732124</v>
       </c>
       <c r="D23">
-        <v>0.1450163069679422</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
+        <v>-0.0479622082099449</v>
+      </c>
+      <c r="E23">
+        <v>0.1609074143989107</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>0.1656912330568847</v>
+      <c r="B24" t="s">
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>0.04348485338269348</v>
+        <v>0.01562949335228225</v>
       </c>
       <c r="D24">
-        <v>0.2101239082385906</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
+        <v>-0.06907112899016721</v>
+      </c>
+      <c r="E24">
+        <v>0.1937839357828566</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>0.1616550253325733</v>
+      <c r="B25" t="s">
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>0.04339293235978037</v>
+        <v>0.01539805233128777</v>
       </c>
       <c r="D25">
-        <v>0.1997643001453895</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
+        <v>-0.04222844817680049</v>
+      </c>
+      <c r="E25">
+        <v>0.2061202558770214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>0.151695013236391</v>
+      <c r="B26" t="s">
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>0.04335301784247103</v>
+        <v>0.01513689241516913</v>
       </c>
       <c r="D26">
-        <v>0.215482327099876</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
+        <v>-0.06199062796595289</v>
+      </c>
+      <c r="E26">
+        <v>0.1792895039552003</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>0.1208702567697399</v>
+      <c r="B27" t="s">
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>0.04330053713174764</v>
+        <v>0.01481958944713213</v>
       </c>
       <c r="D27">
-        <v>0.1555823059315313</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
+        <v>-0.06035931906214842</v>
+      </c>
+      <c r="E27">
+        <v>0.1647786186728548</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <v>0.1417237341088549</v>
+      <c r="B28" t="s">
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>0.04325254512094667</v>
+        <v>0.01468304236970663</v>
       </c>
       <c r="D28">
-        <v>0.1942347368325874</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
+        <v>-0.05086938832834176</v>
+      </c>
+      <c r="E28">
+        <v>0.1654045349245188</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
-        <v>0.1334681896317869</v>
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>0.04255609276837524</v>
+        <v>0.01430164182467042</v>
       </c>
       <c r="D29">
-        <v>0.1799516095131786</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
+        <v>-0.04486064475002849</v>
+      </c>
+      <c r="E29">
+        <v>0.1451757284209587</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>0.1329347618285182</v>
+      <c r="B30" t="s">
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>0.04190223275626459</v>
+        <v>0.01381544067092433</v>
       </c>
       <c r="D30">
-        <v>0.1616958323749738</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
+        <v>-0.08516475940309665</v>
+      </c>
+      <c r="E30">
+        <v>0.1252331823840618</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>0.1152802841582297</v>
+      <c r="B31" t="s">
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>0.04151717225021834</v>
+        <v>0.01339576287412947</v>
       </c>
       <c r="D31">
-        <v>0.1441094594652377</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
+        <v>-0.04715129608676494</v>
+      </c>
+      <c r="E31">
+        <v>0.2261026403096649</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
-        <v>0.1390597284376514</v>
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>0.04069800902062259</v>
+        <v>0.01300885992461476</v>
       </c>
       <c r="D32">
-        <v>0.1672354817999244</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
+        <v>-0.05602511811923216</v>
+      </c>
+      <c r="E32">
+        <v>0.1970737132501472</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>0.152929361020121</v>
+      <c r="B33" t="s">
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>0.04067736343499306</v>
+        <v>0.01257289781392057</v>
       </c>
       <c r="D33">
-        <v>0.2060185262028313</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
+        <v>-0.04679586721427587</v>
+      </c>
+      <c r="E33">
+        <v>0.2248174650187158</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
-        <v>0.1373901245502673</v>
+      <c r="B34" t="s">
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>0.03988124937359427</v>
+        <v>0.01191492143698136</v>
       </c>
       <c r="D34">
-        <v>0.1710840194144654</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
+        <v>-0.06555919583818937</v>
+      </c>
+      <c r="E34">
+        <v>0.102202999231396</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
-        <v>0.1189477290494927</v>
+      <c r="B35" t="s">
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>0.03850533256169797</v>
+        <v>0.01117476959873809</v>
       </c>
       <c r="D35">
-        <v>0.1441412604282228</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
+        <v>-0.06680456974544158</v>
+      </c>
+      <c r="E35">
+        <v>0.2071783744862528</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
-        <v>0.150247088881087</v>
+      <c r="B36" t="s">
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>0.03837865565423582</v>
+        <v>0.01104034276179866</v>
       </c>
       <c r="D36">
-        <v>0.2037530055060222</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
+        <v>-0.05142197060436071</v>
+      </c>
+      <c r="E36">
+        <v>0.1994905627158059</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
-        <v>0.1323847018157831</v>
+      <c r="B37" t="s">
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>0.03804606168769431</v>
+        <v>0.00967936529159541</v>
       </c>
       <c r="D37">
-        <v>0.1807320184228631</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
+        <v>-0.05706010436533948</v>
+      </c>
+      <c r="E37">
+        <v>0.2132030524825161</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
-        <v>0.1400811362465215</v>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>0.0363310904410159</v>
+        <v>0.009549046017675034</v>
       </c>
       <c r="D38">
-        <v>0.1757006785045998</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
+        <v>-0.05071436597929169</v>
+      </c>
+      <c r="E38">
+        <v>0.3028223075782421</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
-        <v>0.1003308533255463</v>
+      <c r="B39" t="s">
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>0.03628881083116586</v>
+        <v>0.008281727185124987</v>
       </c>
       <c r="D39">
-        <v>0.1396291078589753</v>
-      </c>
-      <c r="E39" t="s">
-        <v>41</v>
+        <v>-0.05247311037269631</v>
+      </c>
+      <c r="E39">
+        <v>0.1828933447031682</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
-        <v>0.1652780403906045</v>
+      <c r="B40" t="s">
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>0.03128055970164056</v>
+        <v>0.007377096777809733</v>
       </c>
       <c r="D40">
-        <v>0.2166328110432314</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
+        <v>-0.06121887873823617</v>
+      </c>
+      <c r="E40">
+        <v>0.185013509654484</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <v>0.07401589525726404</v>
+      <c r="B41" t="s">
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>0.02776475144063739</v>
+        <v>-8.603648450344892e-06</v>
       </c>
       <c r="D41">
-        <v>0.09596008213030172</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>-0.0638694274592756</v>
+      </c>
+      <c r="E41">
+        <v>0.1658941071985749</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -28,124 +28,124 @@
     <t>YTD</t>
   </si>
   <si>
+    <t>前海开源</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>中邮创业</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
     <t>上投摩根</t>
   </si>
   <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
     <t>招商</t>
   </si>
   <si>
-    <t>融通</t>
-  </si>
-  <si>
     <t>天弘</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>平安</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>中邮创业</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
-    <t>前海开源</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>安信</t>
   </si>
 </sst>
 </file>
@@ -531,13 +531,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.03038026787390979</v>
+        <v>-0.01008728409175419</v>
       </c>
       <c r="D2">
-        <v>-0.05117837383959301</v>
+        <v>-0.01008728409175419</v>
       </c>
       <c r="E2">
-        <v>0.2462560376522107</v>
+        <v>0.2009651286311414</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.02637849062213427</v>
+        <v>-0.01706728333838026</v>
       </c>
       <c r="D3">
-        <v>-0.04372717545435356</v>
+        <v>-0.01706728333838026</v>
       </c>
       <c r="E3">
-        <v>0.1783976442078563</v>
+        <v>0.1459954621284689</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -565,13 +565,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.02501376034060687</v>
+        <v>-0.01987757178791716</v>
       </c>
       <c r="D4">
-        <v>-0.05122161660339974</v>
+        <v>-0.01987757178791716</v>
       </c>
       <c r="E4">
-        <v>0.2431155995501322</v>
+        <v>0.08029387998931625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -582,13 +582,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.0249640143838088</v>
+        <v>-0.02002095370291856</v>
       </c>
       <c r="D5">
-        <v>-0.03855482464656657</v>
+        <v>-0.02002095370291856</v>
       </c>
       <c r="E5">
-        <v>0.1892038436065788</v>
+        <v>0.1019179351647928</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.02285557098555269</v>
+        <v>-0.02160284326835216</v>
       </c>
       <c r="D6">
-        <v>-0.04863809442133227</v>
+        <v>-0.02160284326835216</v>
       </c>
       <c r="E6">
-        <v>0.2089377754867934</v>
+        <v>0.1573394851743688</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.02226042992265009</v>
+        <v>-0.0220140712451542</v>
       </c>
       <c r="D7">
-        <v>-0.0514397594475654</v>
+        <v>-0.0220140712451542</v>
       </c>
       <c r="E7">
-        <v>0.1864694327545506</v>
+        <v>0.1089576449492897</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.0218873946744147</v>
+        <v>-0.02311174511915082</v>
       </c>
       <c r="D8">
-        <v>-0.04335847662729708</v>
+        <v>-0.02311174511915082</v>
       </c>
       <c r="E8">
-        <v>0.2480331412405674</v>
+        <v>0.1378585521178517</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -650,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.0217417173192842</v>
+        <v>-0.0235754545000546</v>
       </c>
       <c r="D9">
-        <v>-0.04788560909073902</v>
+        <v>-0.0235754545000546</v>
       </c>
       <c r="E9">
-        <v>0.2194272620479851</v>
+        <v>0.1712120275312548</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -667,13 +667,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.02139919161860693</v>
+        <v>-0.02378822543477177</v>
       </c>
       <c r="D10">
-        <v>-0.05504544133217038</v>
+        <v>-0.02378822543477177</v>
       </c>
       <c r="E10">
-        <v>0.3090178272062718</v>
+        <v>0.09846588177482407</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -684,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.02131308482311334</v>
+        <v>-0.02421735883133991</v>
       </c>
       <c r="D11">
-        <v>-0.04981384382454401</v>
+        <v>-0.02421735883133991</v>
       </c>
       <c r="E11">
-        <v>0.1933280510061717</v>
+        <v>0.1127006554179526</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -701,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.02069028550476371</v>
+        <v>-0.02442224530686721</v>
       </c>
       <c r="D12">
-        <v>-0.05055955343694907</v>
+        <v>-0.02442224530686721</v>
       </c>
       <c r="E12">
-        <v>0.2801012115339396</v>
+        <v>0.1646290516597702</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -718,13 +718,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.02058261055956612</v>
+        <v>-0.02517009535917203</v>
       </c>
       <c r="D13">
-        <v>-0.048502582650645</v>
+        <v>-0.02517009535917203</v>
       </c>
       <c r="E13">
-        <v>0.1917491995809932</v>
+        <v>0.1939886926266152</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -735,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.02007639407305684</v>
+        <v>-0.02595530309966243</v>
       </c>
       <c r="D14">
-        <v>-0.0601319798273332</v>
+        <v>-0.02595530309966243</v>
       </c>
       <c r="E14">
-        <v>0.1580639594938984</v>
+        <v>0.2080415893484937</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -752,13 +752,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.0199050087403303</v>
+        <v>-0.02601943540684892</v>
       </c>
       <c r="D15">
-        <v>-0.03445460242064458</v>
+        <v>-0.02601943540684892</v>
       </c>
       <c r="E15">
-        <v>0.2563335632126844</v>
+        <v>0.1307012589166263</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -769,13 +769,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.01929449463180877</v>
+        <v>-0.0265149973353731</v>
       </c>
       <c r="D16">
-        <v>-0.02693380159139458</v>
+        <v>-0.0265149973353731</v>
       </c>
       <c r="E16">
-        <v>0.1339198370279158</v>
+        <v>0.1935925320689602</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -786,13 +786,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.01887034781719099</v>
+        <v>-0.02737796458982811</v>
       </c>
       <c r="D17">
-        <v>-0.06004924009147194</v>
+        <v>-0.02737796458982811</v>
       </c>
       <c r="E17">
-        <v>0.240232191800638</v>
+        <v>0.1461355152319967</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -803,13 +803,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.01770370978376579</v>
+        <v>-0.02821174463988774</v>
       </c>
       <c r="D18">
-        <v>-0.03389488786944928</v>
+        <v>-0.02821174463988774</v>
       </c>
       <c r="E18">
-        <v>0.2092223852906918</v>
+        <v>0.1518779068814275</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -820,13 +820,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.01683039116871843</v>
+        <v>-0.02905641751267563</v>
       </c>
       <c r="D19">
-        <v>-0.03488731491193564</v>
+        <v>-0.02905641751267563</v>
       </c>
       <c r="E19">
-        <v>0.2734427384134608</v>
+        <v>0.1244147695804614</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -837,13 +837,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.01664497320130742</v>
+        <v>-0.02980902699684351</v>
       </c>
       <c r="D20">
-        <v>-0.05053634928946771</v>
+        <v>-0.02980902699684351</v>
       </c>
       <c r="E20">
-        <v>0.1556606728246956</v>
+        <v>0.161390110614662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -854,13 +854,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.01625075749418503</v>
+        <v>-0.03053414821232114</v>
       </c>
       <c r="D21">
-        <v>-0.03772615651710631</v>
+        <v>-0.03053414821232114</v>
       </c>
       <c r="E21">
-        <v>0.1403160995827006</v>
+        <v>0.155614990507202</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.01598449185039663</v>
+        <v>-0.03068652970495844</v>
       </c>
       <c r="D22">
-        <v>-0.03507420950183338</v>
+        <v>-0.03068652970495844</v>
       </c>
       <c r="E22">
-        <v>0.124430098101042</v>
+        <v>0.1431012015613335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -888,13 +888,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.01588700537732124</v>
+        <v>-0.03083205159417923</v>
       </c>
       <c r="D23">
-        <v>-0.0479622082099449</v>
+        <v>-0.03083205159417923</v>
       </c>
       <c r="E23">
-        <v>0.1609074143989107</v>
+        <v>0.1498881459889461</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -905,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0.01562949335228225</v>
+        <v>-0.0309648323385352</v>
       </c>
       <c r="D24">
-        <v>-0.06907112899016721</v>
+        <v>-0.0309648323385352</v>
       </c>
       <c r="E24">
-        <v>0.1937839357828566</v>
+        <v>0.1687729443736783</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -922,13 +922,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.01539805233128777</v>
+        <v>-0.0311893589298754</v>
       </c>
       <c r="D25">
-        <v>-0.04222844817680049</v>
+        <v>-0.0311893589298754</v>
       </c>
       <c r="E25">
-        <v>0.2061202558770214</v>
+        <v>0.2621881150053358</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -939,13 +939,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0.01513689241516913</v>
+        <v>-0.03159823028587461</v>
       </c>
       <c r="D26">
-        <v>-0.06199062796595289</v>
+        <v>-0.03159823028587461</v>
       </c>
       <c r="E26">
-        <v>0.1792895039552003</v>
+        <v>0.2332042015091975</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -956,13 +956,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.01481958944713213</v>
+        <v>-0.03168427178906952</v>
       </c>
       <c r="D27">
-        <v>-0.06035931906214842</v>
+        <v>-0.03168427178906952</v>
       </c>
       <c r="E27">
-        <v>0.1647786186728548</v>
+        <v>0.119044405970979</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -973,13 +973,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.01468304236970663</v>
+        <v>-0.03255567661828696</v>
       </c>
       <c r="D28">
-        <v>-0.05086938832834176</v>
+        <v>-0.03255567661828696</v>
       </c>
       <c r="E28">
-        <v>0.1654045349245188</v>
+        <v>0.169579988216414</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -990,13 +990,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0.01430164182467042</v>
+        <v>-0.03272927149281246</v>
       </c>
       <c r="D29">
-        <v>-0.04486064475002849</v>
+        <v>-0.03272927149281246</v>
       </c>
       <c r="E29">
-        <v>0.1451757284209587</v>
+        <v>0.16766830572744</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1007,13 +1007,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.01381544067092433</v>
+        <v>-0.03323071325887395</v>
       </c>
       <c r="D30">
-        <v>-0.08516475940309665</v>
+        <v>-0.03323071325887395</v>
       </c>
       <c r="E30">
-        <v>0.1252331823840618</v>
+        <v>0.1690390629388852</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1024,13 +1024,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.01339576287412947</v>
+        <v>-0.03364772395158178</v>
       </c>
       <c r="D31">
-        <v>-0.04715129608676494</v>
+        <v>-0.03364772395158178</v>
       </c>
       <c r="E31">
-        <v>0.2261026403096649</v>
+        <v>0.214060798286597</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1041,13 +1041,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.01300885992461476</v>
+        <v>-0.03390738049837849</v>
       </c>
       <c r="D32">
-        <v>-0.05602511811923216</v>
+        <v>-0.03390738049837849</v>
       </c>
       <c r="E32">
-        <v>0.1970737132501472</v>
+        <v>0.2366963326780229</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1058,13 +1058,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.01257289781392057</v>
+        <v>-0.03427355641770669</v>
       </c>
       <c r="D33">
-        <v>-0.04679586721427587</v>
+        <v>-0.03427355641770669</v>
       </c>
       <c r="E33">
-        <v>0.2248174650187158</v>
+        <v>0.1059264834847347</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1075,13 +1075,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>0.01191492143698136</v>
+        <v>-0.03541276876280142</v>
       </c>
       <c r="D34">
-        <v>-0.06555919583818937</v>
+        <v>-0.03541276876280142</v>
       </c>
       <c r="E34">
-        <v>0.102202999231396</v>
+        <v>0.1470908428811044</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>0.01117476959873809</v>
+        <v>-0.03604124131412156</v>
       </c>
       <c r="D35">
-        <v>-0.06680456974544158</v>
+        <v>-0.03604124131412156</v>
       </c>
       <c r="E35">
-        <v>0.2071783744862528</v>
+        <v>0.1234019088527332</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1109,13 +1109,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>0.01104034276179866</v>
+        <v>-0.03672228832353963</v>
       </c>
       <c r="D36">
-        <v>-0.05142197060436071</v>
+        <v>-0.03672228832353963</v>
       </c>
       <c r="E36">
-        <v>0.1994905627158059</v>
+        <v>0.1495063142525555</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1126,13 +1126,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>0.00967936529159541</v>
+        <v>-0.03682159366808435</v>
       </c>
       <c r="D37">
-        <v>-0.05706010436533948</v>
+        <v>-0.03682159366808435</v>
       </c>
       <c r="E37">
-        <v>0.2132030524825161</v>
+        <v>0.1973421020610402</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1143,13 +1143,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>0.009549046017675034</v>
+        <v>-0.04093330237933779</v>
       </c>
       <c r="D38">
-        <v>-0.05071436597929169</v>
+        <v>-0.04093330237933779</v>
       </c>
       <c r="E38">
-        <v>0.3028223075782421</v>
+        <v>0.1695120772009673</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1160,13 +1160,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>0.008281727185124987</v>
+        <v>-0.04111570323840552</v>
       </c>
       <c r="D39">
-        <v>-0.05247311037269631</v>
+        <v>-0.04111570323840552</v>
       </c>
       <c r="E39">
-        <v>0.1828933447031682</v>
+        <v>0.1950153442490312</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1177,13 +1177,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>0.007377096777809733</v>
+        <v>-0.04490182366076889</v>
       </c>
       <c r="D40">
-        <v>-0.06121887873823617</v>
+        <v>-0.04490182366076889</v>
       </c>
       <c r="E40">
-        <v>0.185013509654484</v>
+        <v>0.191994177209788</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1194,13 +1194,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>-8.603648450344892e-06</v>
+        <v>-0.05655649674258867</v>
       </c>
       <c r="D41">
-        <v>-0.0638694274592756</v>
+        <v>-0.05655649674258867</v>
       </c>
       <c r="E41">
-        <v>0.1658941071985749</v>
+        <v>0.2349843647258898</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/基金公司.xlsx
+++ b/FOF/data/基金公司.xlsx
@@ -28,124 +28,124 @@
     <t>YTD</t>
   </si>
   <si>
+    <t>招商</t>
+  </si>
+  <si>
+    <t>海富通</t>
+  </si>
+  <si>
+    <t>国泰</t>
+  </si>
+  <si>
+    <t>银华</t>
+  </si>
+  <si>
+    <t>鹏华</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>泰达宏利</t>
+  </si>
+  <si>
+    <t>融通</t>
+  </si>
+  <si>
+    <t>易方达</t>
+  </si>
+  <si>
+    <t>广发</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>上投摩根</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>长盛</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>嘉实</t>
+  </si>
+  <si>
+    <t>民生加银</t>
+  </si>
+  <si>
+    <t>交银施罗德</t>
+  </si>
+  <si>
+    <t>工银瑞信</t>
+  </si>
+  <si>
+    <t>兴全</t>
+  </si>
+  <si>
+    <t>富国</t>
+  </si>
+  <si>
+    <t>汇添富</t>
+  </si>
+  <si>
+    <t>建信</t>
+  </si>
+  <si>
+    <t>中金</t>
+  </si>
+  <si>
+    <t>汇丰晋信</t>
+  </si>
+  <si>
+    <t>华商</t>
+  </si>
+  <si>
+    <t>华安</t>
+  </si>
+  <si>
+    <t>中银</t>
+  </si>
+  <si>
+    <t>诺德</t>
+  </si>
+  <si>
+    <t>长信</t>
+  </si>
+  <si>
+    <t>天弘</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>大成</t>
+  </si>
+  <si>
+    <t>泓德</t>
+  </si>
+  <si>
+    <t>诺安</t>
+  </si>
+  <si>
+    <t>博时</t>
+  </si>
+  <si>
     <t>前海开源</t>
   </si>
   <si>
     <t>安信</t>
   </si>
   <si>
-    <t>长盛</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>中金</t>
-  </si>
-  <si>
-    <t>诺德</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>汇添富</t>
-  </si>
-  <si>
     <t>中邮创业</t>
-  </si>
-  <si>
-    <t>中银</t>
-  </si>
-  <si>
-    <t>汇丰晋信</t>
-  </si>
-  <si>
-    <t>富国</t>
-  </si>
-  <si>
-    <t>华安</t>
-  </si>
-  <si>
-    <t>广发</t>
-  </si>
-  <si>
-    <t>兴全</t>
-  </si>
-  <si>
-    <t>建信</t>
-  </si>
-  <si>
-    <t>长信</t>
-  </si>
-  <si>
-    <t>大成</t>
-  </si>
-  <si>
-    <t>嘉实</t>
-  </si>
-  <si>
-    <t>南方</t>
-  </si>
-  <si>
-    <t>国泰</t>
-  </si>
-  <si>
-    <t>诺安</t>
-  </si>
-  <si>
-    <t>交银施罗德</t>
-  </si>
-  <si>
-    <t>易方达</t>
-  </si>
-  <si>
-    <t>民生加银</t>
-  </si>
-  <si>
-    <t>泓德</t>
-  </si>
-  <si>
-    <t>工银瑞信</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>平安</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
-  </si>
-  <si>
-    <t>银华</t>
-  </si>
-  <si>
-    <t>华商</t>
-  </si>
-  <si>
-    <t>博时</t>
-  </si>
-  <si>
-    <t>海富通</t>
-  </si>
-  <si>
-    <t>鹏华</t>
-  </si>
-  <si>
-    <t>泰达宏利</t>
-  </si>
-  <si>
-    <t>融通</t>
-  </si>
-  <si>
-    <t>上投摩根</t>
-  </si>
-  <si>
-    <t>招商</t>
-  </si>
-  <si>
-    <t>天弘</t>
   </si>
 </sst>
 </file>
@@ -531,13 +531,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>-0.01008728409175419</v>
+        <v>0.02016986959766975</v>
       </c>
       <c r="D2">
-        <v>-0.01008728409175419</v>
+        <v>0.03789803961571225</v>
       </c>
       <c r="E2">
-        <v>0.2009651286311414</v>
+        <v>0.4772171966042291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>-0.01706728333838026</v>
+        <v>0.01777219104221661</v>
       </c>
       <c r="D3">
-        <v>-0.01706728333838026</v>
+        <v>0.06226096370743717</v>
       </c>
       <c r="E3">
-        <v>0.1459954621284689</v>
+        <v>0.4565811540893505</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -565,13 +565,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>-0.01987757178791716</v>
+        <v>0.01650998333864595</v>
       </c>
       <c r="D4">
-        <v>-0.01987757178791716</v>
+        <v>0.06871669170119987</v>
       </c>
       <c r="E4">
-        <v>0.08029387998931625</v>
+        <v>0.4238524289436596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -582,13 +582,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>-0.02002095370291856</v>
+        <v>0.01605320536083732</v>
       </c>
       <c r="D5">
-        <v>-0.02002095370291856</v>
+        <v>0.01732995127620662</v>
       </c>
       <c r="E5">
-        <v>0.1019179351647928</v>
+        <v>0.474281231355574</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-0.02160284326835216</v>
+        <v>0.01585743087746505</v>
       </c>
       <c r="D6">
-        <v>-0.02160284326835216</v>
+        <v>0.03961242976813595</v>
       </c>
       <c r="E6">
-        <v>0.1573394851743688</v>
+        <v>0.3961731984221699</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-0.0220140712451542</v>
+        <v>0.01428430509709822</v>
       </c>
       <c r="D7">
-        <v>-0.0220140712451542</v>
+        <v>0.06239627176367457</v>
       </c>
       <c r="E7">
-        <v>0.1089576449492897</v>
+        <v>0.4159696983278809</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-0.02311174511915082</v>
+        <v>0.01276313682781649</v>
       </c>
       <c r="D8">
-        <v>-0.02311174511915082</v>
+        <v>0.03410381900920001</v>
       </c>
       <c r="E8">
-        <v>0.1378585521178517</v>
+        <v>0.4679775692216617</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -650,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-0.0235754545000546</v>
+        <v>0.01090405548201168</v>
       </c>
       <c r="D9">
-        <v>-0.0235754545000546</v>
+        <v>0.04289520833295457</v>
       </c>
       <c r="E9">
-        <v>0.1712120275312548</v>
+        <v>0.4069984206863382</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -667,13 +667,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-0.02378822543477177</v>
+        <v>0.009924648721102214</v>
       </c>
       <c r="D10">
-        <v>-0.02378822543477177</v>
+        <v>0.01573697606680136</v>
       </c>
       <c r="E10">
-        <v>0.09846588177482407</v>
+        <v>0.5448144453348156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -684,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.02421735883133991</v>
+        <v>0.009185789595414162</v>
       </c>
       <c r="D11">
-        <v>-0.02421735883133991</v>
+        <v>0.03737602615227287</v>
       </c>
       <c r="E11">
-        <v>0.1127006554179526</v>
+        <v>0.3426968838585596</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -701,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>-0.02442224530686721</v>
+        <v>0.008738616833005919</v>
       </c>
       <c r="D12">
-        <v>-0.02442224530686721</v>
+        <v>0.02311052298678495</v>
       </c>
       <c r="E12">
-        <v>0.1646290516597702</v>
+        <v>0.4041083464084483</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -718,13 +718,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-0.02517009535917203</v>
+        <v>0.007994365910697798</v>
       </c>
       <c r="D13">
-        <v>-0.02517009535917203</v>
+        <v>0.02144702037314294</v>
       </c>
       <c r="E13">
-        <v>0.1939886926266152</v>
+        <v>0.3003504977541169</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -735,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>-0.02595530309966243</v>
+        <v>0.006901371121148747</v>
       </c>
       <c r="D14">
-        <v>-0.02595530309966243</v>
+        <v>0.04010656221628661</v>
       </c>
       <c r="E14">
-        <v>0.2080415893484937</v>
+        <v>0.4561505567733459</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -752,13 +752,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>-0.02601943540684892</v>
+        <v>0.006818218806241116</v>
       </c>
       <c r="D15">
-        <v>-0.02601943540684892</v>
+        <v>0.04087049467820036</v>
       </c>
       <c r="E15">
-        <v>0.1307012589166263</v>
+        <v>0.3826708993829024</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -769,13 +769,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>-0.0265149973353731</v>
+        <v>0.006156003718344794</v>
       </c>
       <c r="D16">
-        <v>-0.0265149973353731</v>
+        <v>0.06390582082137342</v>
       </c>
       <c r="E16">
-        <v>0.1935925320689602</v>
+        <v>0.2957444487819745</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -786,13 +786,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>-0.02737796458982811</v>
+        <v>0.00593123823917141</v>
       </c>
       <c r="D17">
-        <v>-0.02737796458982811</v>
+        <v>0.01827325080495612</v>
       </c>
       <c r="E17">
-        <v>0.1461355152319967</v>
+        <v>0.2367500923104031</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -803,13 +803,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>-0.02821174463988774</v>
+        <v>0.005235057005486654</v>
       </c>
       <c r="D18">
-        <v>-0.02821174463988774</v>
+        <v>0.03542989103857996</v>
       </c>
       <c r="E18">
-        <v>0.1518779068814275</v>
+        <v>0.3688739707257205</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -820,13 +820,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>-0.02905641751267563</v>
+        <v>0.004289644091401978</v>
       </c>
       <c r="D19">
-        <v>-0.02905641751267563</v>
+        <v>0.01869856563166583</v>
       </c>
       <c r="E19">
-        <v>0.1244147695804614</v>
+        <v>0.4532017527220131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -837,13 +837,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>-0.02980902699684351</v>
+        <v>0.003871887718571942</v>
       </c>
       <c r="D20">
-        <v>-0.02980902699684351</v>
+        <v>0.04674408302270949</v>
       </c>
       <c r="E20">
-        <v>0.161390110614662</v>
+        <v>0.3949012421104512</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -854,13 +854,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>-0.03053414821232114</v>
+        <v>0.003673314091178215</v>
       </c>
       <c r="D21">
-        <v>-0.03053414821232114</v>
+        <v>0.04518427711363504</v>
       </c>
       <c r="E21">
-        <v>0.155614990507202</v>
+        <v>0.3746830755612471</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>-0.03068652970495844</v>
+        <v>0.003444118111616712</v>
       </c>
       <c r="D22">
-        <v>-0.03068652970495844</v>
+        <v>0.03602596599354113</v>
       </c>
       <c r="E22">
-        <v>0.1431012015613335</v>
+        <v>0.4237556214825047</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -888,13 +888,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>-0.03083205159417923</v>
+        <v>0.002926499963080031</v>
       </c>
       <c r="D23">
-        <v>-0.03083205159417923</v>
+        <v>0.03972910336813329</v>
       </c>
       <c r="E23">
-        <v>0.1498881459889461</v>
+        <v>0.4214017960874683</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -905,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>-0.0309648323385352</v>
+        <v>0.002874513080659558</v>
       </c>
       <c r="D24">
-        <v>-0.0309648323385352</v>
+        <v>0.02743296020538732</v>
       </c>
       <c r="E24">
-        <v>0.1687729443736783</v>
+        <v>0.3535307656344562</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -922,13 +922,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>-0.0311893589298754</v>
+        <v>0.002549633377211702</v>
       </c>
       <c r="D25">
-        <v>-0.0311893589298754</v>
+        <v>0.0312734474359877</v>
       </c>
       <c r="E25">
-        <v>0.2621881150053358</v>
+        <v>0.3295316028072706</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -939,13 +939,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>-0.03159823028587461</v>
+        <v>0.001896163932296746</v>
       </c>
       <c r="D26">
-        <v>-0.03159823028587461</v>
+        <v>0.05450984507318957</v>
       </c>
       <c r="E26">
-        <v>0.2332042015091975</v>
+        <v>0.3744765170157591</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -956,13 +956,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>-0.03168427178906952</v>
+        <v>0.0003133608897654128</v>
       </c>
       <c r="D27">
-        <v>-0.03168427178906952</v>
+        <v>0.05740784604289151</v>
       </c>
       <c r="E27">
-        <v>0.119044405970979</v>
+        <v>0.3640342903404243</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -973,13 +973,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>-0.03255567661828696</v>
+        <v>0.0002753758383648996</v>
       </c>
       <c r="D28">
-        <v>-0.03255567661828696</v>
+        <v>0.04390190678021311</v>
       </c>
       <c r="E28">
-        <v>0.169579988216414</v>
+        <v>0.3028297698441371</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -990,13 +990,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>-0.03272927149281246</v>
+        <v>5.633279792549573e-05</v>
       </c>
       <c r="D29">
-        <v>-0.03272927149281246</v>
+        <v>0.0366460313793413</v>
       </c>
       <c r="E29">
-        <v>0.16766830572744</v>
+        <v>0.4263441846625333</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1007,13 +1007,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>-0.03323071325887395</v>
+        <v>1.757387927270315e-05</v>
       </c>
       <c r="D30">
-        <v>-0.03323071325887395</v>
+        <v>0.03894478105570798</v>
       </c>
       <c r="E30">
-        <v>0.1690390629388852</v>
+        <v>0.3175696374706063</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1024,13 +1024,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>-0.03364772395158178</v>
+        <v>-0.000935630687793898</v>
       </c>
       <c r="D31">
-        <v>-0.03364772395158178</v>
+        <v>0.02441766709189142</v>
       </c>
       <c r="E31">
-        <v>0.214060798286597</v>
+        <v>0.2347122552589662</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1041,13 +1041,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>-0.03390738049837849</v>
+        <v>-0.0009688321592629112</v>
       </c>
       <c r="D32">
-        <v>-0.03390738049837849</v>
+        <v>0.04869244173189635</v>
       </c>
       <c r="E32">
-        <v>0.2366963326780229</v>
+        <v>0.3083179043417552</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1058,13 +1058,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>-0.03427355641770669</v>
+        <v>-0.001026391057469711</v>
       </c>
       <c r="D33">
-        <v>-0.03427355641770669</v>
+        <v>0.00385084320109863</v>
       </c>
       <c r="E33">
-        <v>0.1059264834847347</v>
+        <v>0.3449909836091485</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1075,13 +1075,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>-0.03541276876280142</v>
+        <v>-0.002016095522592742</v>
       </c>
       <c r="D34">
-        <v>-0.03541276876280142</v>
+        <v>0.04159042672666025</v>
       </c>
       <c r="E34">
-        <v>0.1470908428811044</v>
+        <v>0.2949698616040004</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1092,13 +1092,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>-0.03604124131412156</v>
+        <v>-0.00205765181889761</v>
       </c>
       <c r="D35">
-        <v>-0.03604124131412156</v>
+        <v>0.0312801932787512</v>
       </c>
       <c r="E35">
-        <v>0.1234019088527332</v>
+        <v>0.2789364716640657</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1109,13 +1109,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>-0.03672228832353963</v>
+        <v>-0.002509885664316092</v>
       </c>
       <c r="D36">
-        <v>-0.03672228832353963</v>
+        <v>0.03633698004229102</v>
       </c>
       <c r="E36">
-        <v>0.1495063142525555</v>
+        <v>0.2996253051575912</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1126,13 +1126,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>-0.03682159366808435</v>
+        <v>-0.002751263723267172</v>
       </c>
       <c r="D37">
-        <v>-0.03682159366808435</v>
+        <v>0.03097694533324091</v>
       </c>
       <c r="E37">
-        <v>0.1973421020610402</v>
+        <v>0.287112191226359</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1143,13 +1143,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>-0.04093330237933779</v>
+        <v>-0.003546659926603191</v>
       </c>
       <c r="D38">
-        <v>-0.04093330237933779</v>
+        <v>0.04706780270218136</v>
       </c>
       <c r="E38">
-        <v>0.1695120772009673</v>
+        <v>0.3396542823942714</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1160,13 +1160,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>-0.04111570323840552</v>
+        <v>-0.004660105731528752</v>
       </c>
       <c r="D39">
-        <v>-0.04111570323840552</v>
+        <v>0.04241306850599513</v>
       </c>
       <c r="E39">
-        <v>0.1950153442490312</v>
+        <v>0.3371293348687943</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1177,13 +1177,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>-0.04490182366076889</v>
+        <v>-0.007008902328275668</v>
       </c>
       <c r="D40">
-        <v>-0.04490182366076889</v>
+        <v>0.02632596428585354</v>
       </c>
       <c r="E40">
-        <v>0.191994177209788</v>
+        <v>0.2473645743512534</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1194,13 +1194,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>-0.05655649674258867</v>
+        <v>-0.009602519558069234</v>
       </c>
       <c r="D41">
-        <v>-0.05655649674258867</v>
+        <v>0.05145055794650277</v>
       </c>
       <c r="E41">
-        <v>0.2349843647258898</v>
+        <v>0.2693880346220103</v>
       </c>
     </row>
   </sheetData>
